--- a/data/trans_dic/P70C2_R_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P70C2_R_2023-Dificultad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.08964987473012823</v>
+        <v>0.08964987473012824</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.1511573873490897</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.049241799458442</v>
+        <v>0.05058816350546609</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1076181200744234</v>
+        <v>0.1011244134664796</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08621316534578949</v>
+        <v>0.08646043880816429</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1515551264038003</v>
+        <v>0.145013302362097</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2034699935679785</v>
+        <v>0.2092210320233313</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1606998052655287</v>
+        <v>0.1573014688202261</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.09506171298489505</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1046443290390466</v>
+        <v>0.1046443290390467</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.09903848910858309</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06986635275394644</v>
+        <v>0.07108013774758402</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07864724655954598</v>
+        <v>0.07733659690269322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0799435570823423</v>
+        <v>0.07949425973530098</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1230390635741577</v>
+        <v>0.1281450409309086</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1388427962110201</v>
+        <v>0.1331621324895086</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1200689027563851</v>
+        <v>0.1186829680202224</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.08528130984583264</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07834095225403793</v>
+        <v>0.07834095225403798</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.08224558515414637</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.061996850006366</v>
+        <v>0.05988942944796427</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05785331216334603</v>
+        <v>0.05817922458802783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06517157673737732</v>
+        <v>0.06595725961516026</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1177283823507789</v>
+        <v>0.1141389971938741</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1085732277047997</v>
+        <v>0.1076497139676838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1006970064031531</v>
+        <v>0.1031421500511124</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.06808283630310662</v>
+        <v>0.06808283630310663</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0850587033121096</v>
+        <v>0.08505870331210959</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.07556856768655484</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04875836768363022</v>
+        <v>0.04949751114807772</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06302016331505024</v>
+        <v>0.06342993702427233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06029421242419482</v>
+        <v>0.05894486877817148</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09782190347499738</v>
+        <v>0.09384156423299365</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1146510089381915</v>
+        <v>0.1126347960628055</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0936459423551579</v>
+        <v>0.0927319138557593</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08293730162189163</v>
+        <v>0.08293730162189165</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.09522287422270859</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06900059967041991</v>
+        <v>0.06864117662554184</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08227859624414879</v>
+        <v>0.08296309543584614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07753870726655733</v>
+        <v>0.07871821813455593</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09737242906371721</v>
+        <v>0.0992862510076995</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1110180722200148</v>
+        <v>0.1103281824817644</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09821852976489616</v>
+        <v>0.09877139363681056</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8669</v>
+        <v>8906</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18456</v>
+        <v>17343</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29963</v>
+        <v>30049</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26680</v>
+        <v>25529</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34894</v>
+        <v>35881</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55850</v>
+        <v>54669</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35352</v>
+        <v>35966</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28230</v>
+        <v>27760</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69146</v>
+        <v>68758</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>62257</v>
+        <v>64840</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49837</v>
+        <v>47798</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>103852</v>
+        <v>102653</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>38884</v>
+        <v>37562</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>28211</v>
+        <v>28370</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>72654</v>
+        <v>73530</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>73839</v>
+        <v>71587</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>52943</v>
+        <v>52492</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112259</v>
+        <v>114985</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28841</v>
+        <v>29279</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>29404</v>
+        <v>29595</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>63797</v>
+        <v>62370</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>57863</v>
+        <v>55509</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>53494</v>
+        <v>52554</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>99087</v>
+        <v>98120</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>131153</v>
+        <v>130469</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>122155</v>
+        <v>123171</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>262499</v>
+        <v>266492</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>185080</v>
+        <v>188718</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>164823</v>
+        <v>163799</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>332509</v>
+        <v>334380</v>
       </c>
     </row>
     <row r="24">
